--- a/biology/Médecine/Donanemab/Donanemab.xlsx
+++ b/biology/Médecine/Donanemab/Donanemab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le donanemab est un médicament expérimental développé par Eli Lilly pour le traitement de la maladie d'Alzheimer. Cet anticorps monoclonal est conçu pour cibler les protéines bêta-amyloïdes du cerveau qui sont censées provoquer la neurodégénérescence observée dans la maladie d'Alzheimer.
@@ -512,10 +524,12 @@
           <t>Tests cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament est en phase III de tests cliniques. Une première étude de sécurité, tolérabilité et efficacité a démarré en décembre 2017 sur 266 participants[2] puis a été prolongée par une 2e étude depuis juin 2020[2]. Le médicament est administré par injection intraveineuse toutes les 4 semaines. Les premières données publiées font état d'une réduction de 32 % d'un indice du déclin lié à la maladie et d'un retour à la normale du niveau de la plaque amyloïde[3],[4]. Selon des résultats publiés en 2023, le médicament peut ralentir la progression de la maladie chez les personnes qui commencent à le prendre lorsque la maladie en est encore à ses premiers stades. Il n'améliore pas les symptômes, mais parmi les personnes qui ont commencé à le prendre aux premiers stades de la maladie d'Alzheimer, 47 % n'avaient pas de progression de la maladie selon certaines mesures après un an, contre 29 % pour le placebo. Le médicament n'est pas aussi bénéfique pour les personnes à des stades plus avancés de la maladie ou pour celles qui présentent une variation génétique commune qui augmente le risque de la maladie[5],[6]. Ces données sont confirmées par une étude de phase III[7].
-Une anomalie d'imagerie du cerveau, nommée ARIA-E, qui caractérise un œdème cérébral, apparaît chez 27 % des patients[8]. Ce genre d'anomalie est asymptomatique dans environ les deux-tiers des cas, et sa cause n'est pas élucidée[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament est en phase III de tests cliniques. Une première étude de sécurité, tolérabilité et efficacité a démarré en décembre 2017 sur 266 participants puis a été prolongée par une 2e étude depuis juin 2020. Le médicament est administré par injection intraveineuse toutes les 4 semaines. Les premières données publiées font état d'une réduction de 32 % d'un indice du déclin lié à la maladie et d'un retour à la normale du niveau de la plaque amyloïde,. Selon des résultats publiés en 2023, le médicament peut ralentir la progression de la maladie chez les personnes qui commencent à le prendre lorsque la maladie en est encore à ses premiers stades. Il n'améliore pas les symptômes, mais parmi les personnes qui ont commencé à le prendre aux premiers stades de la maladie d'Alzheimer, 47 % n'avaient pas de progression de la maladie selon certaines mesures après un an, contre 29 % pour le placebo. Le médicament n'est pas aussi bénéfique pour les personnes à des stades plus avancés de la maladie ou pour celles qui présentent une variation génétique commune qui augmente le risque de la maladie,. Ces données sont confirmées par une étude de phase III.
+Une anomalie d'imagerie du cerveau, nommée ARIA-E, qui caractérise un œdème cérébral, apparaît chez 27 % des patients. Ce genre d'anomalie est asymptomatique dans environ les deux-tiers des cas, et sa cause n'est pas élucidée.
 </t>
         </is>
       </c>
